--- a/3-Katet/regjistri/29-Koordinatat-e-kateve-1084-29-Fahriu.xlsx
+++ b/3-Katet/regjistri/29-Koordinatat-e-kateve-1084-29-Fahriu.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$49</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Y</t>
   </si>
@@ -90,9 +90,6 @@
     <t>KATI1</t>
   </si>
   <si>
-    <t>KATI1-TERASAT</t>
-  </si>
-  <si>
     <t>Kati1</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>SHKALET</t>
+  </si>
+  <si>
+    <t>KATI1-TERASA</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -437,81 +437,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -540,21 +465,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -564,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -587,18 +497,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -606,145 +504,116 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1384,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="B14:I28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,115 +1272,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
@@ -1522,33 +1391,33 @@
       <c r="I12" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="63" t="s">
+      <c r="G14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="63" t="s">
+      <c r="H14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="63" t="s">
+      <c r="I14" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
+      <c r="B15" s="12">
         <v>9</v>
       </c>
       <c r="C15" s="5">
@@ -1557,24 +1426,24 @@
       <c r="D15" s="5">
         <v>4691401.4800000004</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="10">
         <v>616.45399999999995</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="62" t="s">
+      <c r="F15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="42">
         <v>114.3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
+      <c r="B16" s="12">
         <v>10</v>
       </c>
       <c r="C16" s="5">
@@ -1583,18 +1452,18 @@
       <c r="D16" s="5">
         <v>4691397.3140000002</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="10">
         <v>616.45399999999995</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
+      <c r="F16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
+      <c r="B17" s="12">
         <v>11</v>
       </c>
       <c r="C17" s="5">
@@ -1603,18 +1472,18 @@
       <c r="D17" s="5">
         <v>4691396.176</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="10">
         <v>616.45399999999995</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
+      <c r="F17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
+      <c r="B18" s="12">
         <v>12</v>
       </c>
       <c r="C18" s="5">
@@ -1623,18 +1492,18 @@
       <c r="D18" s="5">
         <v>4691396.6639999999</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="10">
         <v>616.45399999999995</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
+      <c r="F18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="16">
+      <c r="B19" s="12">
         <v>13</v>
       </c>
       <c r="C19" s="5">
@@ -1643,18 +1512,18 @@
       <c r="D19" s="5">
         <v>4691393.2450000001</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="10">
         <v>616.45399999999995</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
+      <c r="F19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
+      <c r="B20" s="12">
         <v>14</v>
       </c>
       <c r="C20" s="5">
@@ -1663,18 +1532,18 @@
       <c r="D20" s="5">
         <v>4691396.1059999997</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="10">
         <v>616.45399999999995</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
+      <c r="F20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
     </row>
     <row r="21" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="16">
+      <c r="B21" s="12">
         <v>1</v>
       </c>
       <c r="C21" s="5">
@@ -1683,22 +1552,22 @@
       <c r="D21" s="5">
         <v>4691394.0980000002</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="10">
         <v>616.45399999999995</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="64">
+      <c r="F21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="43">
         <v>20.78</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
+      <c r="B22" s="12">
         <v>2</v>
       </c>
       <c r="C22" s="5">
@@ -1707,18 +1576,18 @@
       <c r="D22" s="5">
         <v>4691397.4139999999</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="10">
         <v>616.45399999999995</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="62"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
+      <c r="F22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
     </row>
     <row r="23" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16">
+      <c r="B23" s="12">
         <v>6</v>
       </c>
       <c r="C23" s="5">
@@ -1727,18 +1596,18 @@
       <c r="D23" s="5">
         <v>4691387.3668999998</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="10">
         <v>616.45399999999995</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
+      <c r="F23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
+      <c r="B24" s="12">
         <v>7</v>
       </c>
       <c r="C24" s="5">
@@ -1747,18 +1616,18 @@
       <c r="D24" s="5">
         <v>4691398.8130000001</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="10">
         <v>616.45399999999995</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
+      <c r="F24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
     </row>
     <row r="25" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="16">
+      <c r="B25" s="12">
         <v>8</v>
       </c>
       <c r="C25" s="5">
@@ -1767,18 +1636,18 @@
       <c r="D25" s="5">
         <v>4691402.9649999999</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="10">
         <v>616.45399999999995</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
+      <c r="F25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
+      <c r="B26" s="12">
         <v>3</v>
       </c>
       <c r="C26" s="5">
@@ -1787,22 +1656,22 @@
       <c r="D26" s="5">
         <v>4691397.4139999999</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="10">
         <v>616.45399999999995</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="32" t="s">
+      <c r="F26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="42"/>
+      <c r="H26" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="46">
         <v>3.59</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="16">
+      <c r="B27" s="12">
         <v>4</v>
       </c>
       <c r="C27" s="5">
@@ -1811,18 +1680,18 @@
       <c r="D27" s="5">
         <v>4691397.1449999996</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="10">
         <v>616.45399999999995</v>
       </c>
-      <c r="F27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="62"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
+      <c r="F27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="16">
+      <c r="B28" s="12">
         <v>5</v>
       </c>
       <c r="C28" s="5">
@@ -1831,556 +1700,376 @@
       <c r="D28" s="5">
         <v>4691398.6579999998</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="10">
         <v>616.45399999999995</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="62"/>
-      <c r="H28" s="14" t="s">
+      <c r="F28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="42"/>
+      <c r="H28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="10">
         <f>SUM(I15:I27)</f>
         <v>138.66999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D38" s="6"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D41" s="6"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D42" s="6"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D43" s="6"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="6"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C32" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D32" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F32" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G32" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H32" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I32" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="19">
-        <v>7</v>
-      </c>
-      <c r="C46" s="15">
-        <v>7510827.4069999997</v>
-      </c>
-      <c r="D46" s="16">
-        <v>4693753.9248000002</v>
-      </c>
-      <c r="E46" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F46" s="5" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="11">
+        <v>21</v>
+      </c>
+      <c r="C33" s="11">
+        <v>7513232.5089999996</v>
+      </c>
+      <c r="D33" s="12">
+        <v>4691392.78</v>
+      </c>
+      <c r="E33" s="5">
+        <v>619.63499999999999</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G33" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="I33" s="48">
+        <v>109.14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="11">
+        <v>22</v>
+      </c>
+      <c r="C34" s="11">
+        <v>7513231.5599999996</v>
+      </c>
+      <c r="D34" s="12">
+        <v>4691394.4730000002</v>
+      </c>
+      <c r="E34" s="5">
+        <v>619.63499999999999</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="49"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="11">
+        <v>23</v>
+      </c>
+      <c r="C35" s="11">
+        <v>7513231.2180000003</v>
+      </c>
+      <c r="D35" s="12">
+        <v>4691396.2120000003</v>
+      </c>
+      <c r="E35" s="5">
+        <v>619.63499999999999</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="49"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="11">
+        <v>24</v>
+      </c>
+      <c r="C36" s="11">
+        <v>7513222.9090999998</v>
+      </c>
+      <c r="D36" s="12">
+        <v>4691387.3668999998</v>
+      </c>
+      <c r="E36" s="5">
+        <v>619.63499999999999</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="49"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="11">
+        <v>25</v>
+      </c>
+      <c r="C37" s="11">
+        <v>7513230.7364999996</v>
+      </c>
+      <c r="D37" s="12">
+        <v>4691395.9420999996</v>
+      </c>
+      <c r="E37" s="5">
+        <v>619.63499999999999</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="49"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="11">
+        <v>26</v>
+      </c>
+      <c r="C38" s="11">
+        <v>7513228.9780000001</v>
+      </c>
+      <c r="D38" s="12">
+        <v>4691397.7410000004</v>
+      </c>
+      <c r="E38" s="5">
+        <v>619.63499999999999</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="49"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="11">
+        <v>27</v>
+      </c>
+      <c r="C39" s="11">
+        <v>7513218.0449999999</v>
+      </c>
+      <c r="D39" s="12">
+        <v>4691396.1100000003</v>
+      </c>
+      <c r="E39" s="5">
+        <v>619.63499999999999</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="49"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="11">
+        <v>28</v>
+      </c>
+      <c r="C40" s="11">
+        <v>7513227.0547000002</v>
+      </c>
+      <c r="D40" s="12">
+        <v>4691401.17</v>
+      </c>
+      <c r="E40" s="5">
+        <v>619.63499999999999</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="49"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="11">
+        <v>29</v>
+      </c>
+      <c r="C41" s="11">
+        <v>7513228.1008000001</v>
+      </c>
+      <c r="D41" s="12">
+        <v>4691401.7566</v>
+      </c>
+      <c r="E41" s="5">
+        <v>619.63499999999999</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="49"/>
+      <c r="H41" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="20">
-        <v>224.06</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="19">
-        <v>12</v>
-      </c>
-      <c r="C47" s="15">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="D47" s="16">
-        <v>4693754.3136</v>
-      </c>
-      <c r="E47" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="21"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="19">
-        <v>13</v>
-      </c>
-      <c r="C48" s="15">
-        <v>7510834.5436000004</v>
-      </c>
-      <c r="D48" s="16">
-        <v>4693744.8530999999</v>
-      </c>
-      <c r="E48" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="18"/>
+      <c r="I41" s="48">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="11">
+        <v>30</v>
+      </c>
+      <c r="C42" s="11">
+        <v>7513230.0250000004</v>
+      </c>
+      <c r="D42" s="12">
+        <v>4691398.3260000004</v>
+      </c>
+      <c r="E42" s="5">
+        <v>619.63499999999999</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="49"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="11">
+        <v>31</v>
+      </c>
+      <c r="C43" s="11">
+        <v>7513231.7630000003</v>
+      </c>
+      <c r="D43" s="12">
+        <v>4691396.7810000004</v>
+      </c>
+      <c r="E43" s="5">
+        <v>619.63499999999999</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="49"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="11">
+        <v>32</v>
+      </c>
+      <c r="C44" s="11">
+        <v>7513233.6630999995</v>
+      </c>
+      <c r="D44" s="12">
+        <v>4691393.3976999996</v>
+      </c>
+      <c r="E44" s="5">
+        <v>619.63499999999999</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="47"/>
+      <c r="H44" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="13">
+        <f>SUM(I33:I41)</f>
+        <v>118.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="I48" s="20"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="19">
-        <v>19</v>
-      </c>
-      <c r="C49" s="15">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="D49" s="16">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="E49" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="20"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="19">
-        <v>52</v>
-      </c>
-      <c r="C50" s="15">
-        <v>7510831.3317</v>
-      </c>
-      <c r="D50" s="16">
-        <v>4693749.9599000001</v>
-      </c>
-      <c r="E50" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="20"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="19">
-        <v>56</v>
-      </c>
-      <c r="C51" s="15">
-        <v>7510822.3073000005</v>
-      </c>
-      <c r="D51" s="16">
-        <v>4693757.1810999997</v>
-      </c>
-      <c r="E51" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="20"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="19">
-        <v>8</v>
-      </c>
-      <c r="C52" s="15">
-        <v>7510830.3949999996</v>
-      </c>
-      <c r="D52" s="16">
-        <v>4693749.0327000003</v>
-      </c>
-      <c r="E52" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" s="20">
-        <v>20.72</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="19">
-        <v>100</v>
-      </c>
-      <c r="C53" s="15">
-        <v>7510826.4649999999</v>
-      </c>
-      <c r="D53" s="16">
-        <v>4693752.9923</v>
-      </c>
-      <c r="E53" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="20"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="19">
-        <v>101</v>
-      </c>
-      <c r="C54" s="15">
-        <v>7510832.6496000001</v>
-      </c>
-      <c r="D54" s="16">
-        <v>4693767.4611</v>
-      </c>
-      <c r="E54" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="17"/>
-      <c r="H54" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="28">
-        <v>7.37</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="22">
-        <v>102</v>
-      </c>
-      <c r="C55" s="23">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="D55" s="24">
-        <v>4693755.1654000003</v>
-      </c>
-      <c r="E55" s="13">
-        <v>584.09</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="25"/>
-      <c r="H55" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="27">
-        <f>SUM(I46:I54)</f>
-        <v>252.15</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D56" s="6"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D57" s="6"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D58" s="6"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D59" s="6"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D60" s="6"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D61" s="6"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D62" s="6"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D63" s="6"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D64" s="6"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D65" s="6"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D66" s="6"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D67" s="6"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D68" s="6"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D69" s="6"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D70" s="6"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D71" s="6"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D72" s="6"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D73" s="6"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D74" s="6"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-    </row>
-    <row r="76" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="54"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="I77" s="50"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="45"/>
-    </row>
-    <row r="78" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="56" t="s">
+      <c r="J48" s="14"/>
+      <c r="K48" s="15"/>
+    </row>
+    <row r="49" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="59">
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29">
         <v>152</v>
       </c>
-      <c r="F78" s="60"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="52"/>
-      <c r="J78" s="46"/>
-      <c r="K78" s="47"/>
-    </row>
-    <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K81" s="1"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="17"/>
+    </row>
+    <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K52" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="J77:K78"/>
-    <mergeCell ref="A3:K6"/>
-    <mergeCell ref="H77:I78"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="E78:G78"/>
+  <mergeCells count="20">
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="C8:J10"/>
     <mergeCell ref="G15:G28"/>
@@ -2390,6 +2079,17 @@
     <mergeCell ref="I21:I25"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J48:K49"/>
+    <mergeCell ref="A3:K6"/>
+    <mergeCell ref="H48:I49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="H33:H40"/>
+    <mergeCell ref="I33:I40"/>
+    <mergeCell ref="G33:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
